--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3251944.209793882</v>
+        <v>3356883.439969247</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8065992.409971929</v>
+        <v>8082309.857032563</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>347.9690813599218</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>191.0784160374952</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>250.5527703687874</v>
       </c>
       <c r="X4" t="n">
-        <v>176.4541801346818</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>390.251381617337</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.48570572830548</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>18.4718679846044</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>109.7811651255454</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1133,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>295.0200036045163</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>245.3317608950674</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>68.20519306425872</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>83.01213835200522</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881257</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856545</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179931</v>
+        <v>66.3752467101216</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>100.1928033809263</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.2893995353468</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856542</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012157</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>204.1034810317304</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>14.76058440587529</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2132,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>45.16086499484859</v>
       </c>
     </row>
     <row r="23">
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>0.4774956074566125</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>73.97774435452023</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>4.019807611472022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>121.2558461704866</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2801,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695537</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>92.83802857056186</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>142.4285301601181</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="33">
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,22 +3237,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>170.9457618790573</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>79.90816078629015</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,16 +3271,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206807</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3670,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>176.1811323375807</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458246</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>74.56049207329649</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>18.4960568543865</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4138,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>19.17715139986268</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4189,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>113.6427030833212</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1969.42314369238</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1030.392831058231</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993394</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.628073993394</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>3119.628073993394</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X2" t="n">
-        <v>2746.162315732314</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="Y2" t="n">
-        <v>2356.022983756502</v>
+        <v>1416.181083656475</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686085</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080145</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986321</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291645</v>
+        <v>607.1380332666176</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>970.4000522258377</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1357.685180822783</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.9977502341333</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C4" t="n">
-        <v>607.0615673062264</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1356.675339798491</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1356.675339798491</v>
+        <v>419.9524592939263</v>
       </c>
       <c r="X4" t="n">
-        <v>1178.438794207903</v>
+        <v>419.9524592939263</v>
       </c>
       <c r="Y4" t="n">
-        <v>957.646215064373</v>
+        <v>199.1598801503962</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1896.503151925173</v>
+        <v>863.4584982637873</v>
       </c>
       <c r="C5" t="n">
-        <v>1527.540634984761</v>
+        <v>494.4959813233756</v>
       </c>
       <c r="D5" t="n">
-        <v>1169.274936378011</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E5" t="n">
-        <v>1169.274936378011</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>758.2890315884031</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2013.663428564801</v>
       </c>
       <c r="X5" t="n">
-        <v>2283.102991989294</v>
+        <v>1640.197670303721</v>
       </c>
       <c r="Y5" t="n">
-        <v>2283.102991989294</v>
+        <v>1250.058338327909</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1624.71859813194</v>
+        <v>1150.699034738197</v>
       </c>
       <c r="V7" t="n">
-        <v>1624.71859813194</v>
+        <v>896.0145465323097</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>606.5973764953492</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>606.5973764953492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>385.804797351819</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1859.132475219475</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1859.132475219475</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1500.866776612725</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1115.078524014481</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>704.092619224873</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.871647259409</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.732315283597</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4889,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>749.2621142610717</v>
+        <v>629.1078027362229</v>
       </c>
       <c r="C10" t="n">
-        <v>580.3259313331648</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D10" t="n">
-        <v>430.2092919208291</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>282.2961983384359</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>135.4062508405256</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1843.443903288487</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1843.443903288487</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1621.677287858014</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1332.574420983657</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1077.88993277777</v>
       </c>
       <c r="W10" t="n">
-        <v>970.0546934046018</v>
+        <v>1077.88993277777</v>
       </c>
       <c r="X10" t="n">
-        <v>970.0546934046018</v>
+        <v>849.900381879753</v>
       </c>
       <c r="Y10" t="n">
-        <v>749.2621142610717</v>
+        <v>629.1078027362229</v>
       </c>
     </row>
     <row r="11">
@@ -5015,73 +5017,73 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068006</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694703</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852251</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,40 +5105,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191922</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349506</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061502</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>633.441327983677</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557702</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557702</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557702</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138421</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>815.0897928139166</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,31 +5296,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714573</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>555.8158034133954</v>
+        <v>929.7309773356188</v>
       </c>
       <c r="C16" t="n">
-        <v>555.8158034133954</v>
+        <v>929.7309773356188</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232832</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408902</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1990.897413132285</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1701.822186476483</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1447.137698270597</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1157.720528233636</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>929.7309773356188</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>929.7309773356188</v>
       </c>
     </row>
     <row r="17">
@@ -5507,52 +5509,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>652.8121879835377</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>504.8990944011446</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>358.0091469032342</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>190.8130476181141</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5744,31 +5746,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5950,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="23">
@@ -5972,64 +5974,64 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X25" t="n">
-        <v>1319.459739407056</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6251,22 +6253,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,28 +6305,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>3046.798896214207</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>3046.798896214207</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>2896.682256801871</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>2748.769163219478</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>2601.879215721568</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>3228.447361044447</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6491,19 +6493,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>2644.045655650153</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>3241.424143276705</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>3869.022106831312</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C31" t="n">
-        <v>696.7084350851671</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D31" t="n">
-        <v>546.5917956728314</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E31" t="n">
-        <v>546.5917956728314</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6689,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,19 +6785,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>4404.185983673937</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>4115.110757018135</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>3825.693586981174</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>2726.914133601549</v>
       </c>
       <c r="M36" t="n">
-        <v>1540.888753373307</v>
+        <v>2817.800993781636</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>3445.398957336243</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>3997.30868757553</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="37">
@@ -7072,34 +7074,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7163,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192584</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7239,34 +7241,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273893</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>924.834428639718</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3118.73869457197</v>
+        <v>702.4944101284094</v>
       </c>
       <c r="C40" t="n">
-        <v>2949.802511644064</v>
+        <v>533.5582272005025</v>
       </c>
       <c r="D40" t="n">
-        <v>2799.685872231728</v>
+        <v>383.4415877881668</v>
       </c>
       <c r="E40" t="n">
-        <v>2651.772778649335</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="F40" t="n">
-        <v>2504.882831151424</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797179</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4293.270947686605</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>4038.586459480718</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3749.169289443757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3521.17973854574</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y40" t="n">
-        <v>3300.38715940221</v>
+        <v>884.1428749586491</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7405,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3168.568054801517</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C43" t="n">
-        <v>2999.63187187361</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D43" t="n">
-        <v>2849.515232461274</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E43" t="n">
-        <v>2701.602138878881</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>2554.712191380971</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024105</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>4404.185983673936</v>
+        <v>2245.425363523663</v>
       </c>
       <c r="U43" t="n">
-        <v>4115.110757018134</v>
+        <v>1956.350136867861</v>
       </c>
       <c r="V43" t="n">
-        <v>3860.426268812247</v>
+        <v>1701.665648661974</v>
       </c>
       <c r="W43" t="n">
-        <v>3571.009098775286</v>
+        <v>1412.248478625014</v>
       </c>
       <c r="X43" t="n">
-        <v>3571.009098775286</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y43" t="n">
-        <v>3350.216519631756</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="44">
@@ -7637,28 +7639,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7737,16 +7739,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2222.001901828445</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2897.617548589219</v>
+        <v>3046.798896214207</v>
       </c>
       <c r="C46" t="n">
-        <v>2728.681365661312</v>
+        <v>2877.8627132863</v>
       </c>
       <c r="D46" t="n">
-        <v>2728.681365661312</v>
+        <v>2727.746073873964</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661312</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661312</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376192</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.77343521839</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
         <v>4690.833152398593</v>
@@ -7831,25 +7833,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305899</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.33114932884</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673038</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V46" t="n">
-        <v>3817.465313497966</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W46" t="n">
-        <v>3528.048143461006</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X46" t="n">
-        <v>3300.058592562988</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y46" t="n">
-        <v>3079.266013419458</v>
+        <v>3228.447361044447</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>14.25823202432775</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>54.95314511566488</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>118.3918499711684</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.54258064659049</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>13.30196929555771</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>125.5341284403486</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>173.4237883572462</v>
       </c>
     </row>
     <row r="23">
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>180.548790394188</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>151.7319110345169</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>144.5956654067403</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.26829212178225</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>86.99395161137544</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>2.992517862813116</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>46.45968844823099</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>145.801494602747</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>36.41624546988356</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>110.0033420516634</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>186.7544012944547</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>90.96364621897236</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>198.9093934729018</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>127.2568112467065</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>706424.7198948135</v>
+        <v>714743.4183963126</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>706424.7198948135</v>
+        <v>714743.4183963126</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>694613.8252466777</v>
+        <v>694613.8252466779</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>694613.8252466779</v>
+        <v>694613.8252466777</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>694613.8252466777</v>
+        <v>694613.8252466779</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="F2" t="n">
-        <v>726431.9397210055</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210049</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.939721005</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210052</v>
-      </c>
       <c r="N2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210057</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210056</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.200466486916411e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,25 +26389,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551156</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.735885118454462e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810783</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810786</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810783</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.200356756701</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9337.200356756628</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.20035675659</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.200356756628</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756548</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756639</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756695</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756652</v>
+        <v>9337.200356756559</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756672</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26503,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-786265.3285392385</v>
+        <v>-605478.2368300125</v>
       </c>
       <c r="C6" t="n">
-        <v>542479.4171883547</v>
+        <v>509273.5467459073</v>
       </c>
       <c r="D6" t="n">
-        <v>542479.4171883541</v>
+        <v>349852.2767480165</v>
       </c>
       <c r="E6" t="n">
-        <v>290559.7477329861</v>
+        <v>290559.747732987</v>
       </c>
       <c r="F6" t="n">
+        <v>615972.209540341</v>
+      </c>
+      <c r="G6" t="n">
         <v>615972.2095403419</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>615972.2095403415</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>615972.2095403416</v>
+      </c>
+      <c r="J6" t="n">
+        <v>448367.0317303592</v>
+      </c>
+      <c r="K6" t="n">
+        <v>615972.2095403415</v>
+      </c>
+      <c r="L6" t="n">
+        <v>567678.2395321508</v>
+      </c>
+      <c r="M6" t="n">
+        <v>530917.1816048301</v>
+      </c>
+      <c r="N6" t="n">
+        <v>615972.209540342</v>
+      </c>
+      <c r="O6" t="n">
+        <v>615972.2095403417</v>
+      </c>
+      <c r="P6" t="n">
         <v>615972.2095403419</v>
-      </c>
-      <c r="I6" t="n">
-        <v>615972.2095403417</v>
-      </c>
-      <c r="J6" t="n">
-        <v>398441.0071430641</v>
-      </c>
-      <c r="K6" t="n">
-        <v>615972.2095403413</v>
-      </c>
-      <c r="L6" t="n">
-        <v>615972.2095403414</v>
-      </c>
-      <c r="M6" t="n">
-        <v>530917.1816048297</v>
-      </c>
-      <c r="N6" t="n">
-        <v>615972.2095403415</v>
-      </c>
-      <c r="O6" t="n">
-        <v>615972.209540342</v>
-      </c>
-      <c r="P6" t="n">
-        <v>615972.2095403415</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26713,13 +26715,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.221727186500901e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.221727186500901e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.771103979917255e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973546</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>17.30381041108575</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>215.7976297042162</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>35.97022796780357</v>
       </c>
       <c r="X4" t="n">
-        <v>49.25547525435539</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27625,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>20.67034403611643</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7552629891076</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>161.3601121973329</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>176.4306730800675</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>115.9017220489371</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>140.9061777609862</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>97.8206151947695</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>5.920014318042107</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.143975073528475e-13</v>
       </c>
     </row>
     <row r="17">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>-6.496390726949487e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29746,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>7.714463988252515e-14</v>
       </c>
     </row>
     <row r="33">
@@ -29989,10 +29991,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.218213731875545e-12</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8.221727186500901e-14</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>381.2855185329327</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>138.5955196772183</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>567.5882829286713</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,16 +32551,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M21" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32570,7 +32572,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>431.3680753731354</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,16 +33025,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>245.8118639189582</v>
+        <v>506.5665344352332</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,10 +33046,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,25 +33262,25 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951686</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33503,13 +33505,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>602.8420149078241</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33520,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33646,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33736,37 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>615.038144437878</v>
+        <v>233.9389431948342</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043738</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33970,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>268.6704608606973</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34210,37 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>248.74493692092</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34457,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P45" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>311.938592662178</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>304.6326742391972</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>249.9438064495994</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,19 +35570,19 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7540807028593151</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>425.454249006653</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,16 +35816,16 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36130,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M21" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>103.6778299969399</v>
+        <v>364.4325005132149</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,10 +36694,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>79.32561221529446</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>471.5003028244908</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37168,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>472.9041105158597</v>
+        <v>91.80490927281591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>134.2025531565914</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>134.6960534463671</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410458</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>191.358233988438</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38105,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P45" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3356883.439969247</v>
+        <v>3352787.798464481</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8082309.857032563</v>
+        <v>8082309.857032561</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>191.0784160374952</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>253.951229018672</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>50.07724387121691</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -879,10 +879,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>250.5527703687874</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>259.6580847920589</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,16 +949,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>85.48570572830548</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.4718679846044</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>239.3135884893132</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>139.1071548763977</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>245.3317608950674</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>73.34931970216547</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>83.01213835200522</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881257</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856545</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101216</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>100.1928033809263</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465691</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462238</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856542</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012157</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>204.1034810317304</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>14.76058440587529</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>45.16086499484859</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2526,25 +2526,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4774956074566125</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>121.2558461704866</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.83802857056186</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>79.90816078629015</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3271,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>38.95525409458246</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710083</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>18.4960568543865</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>19.17715139986268</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1416.181083656475</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="C2" t="n">
-        <v>1416.181083656475</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="D2" t="n">
-        <v>1416.181083656475</v>
+        <v>1520.24208717972</v>
       </c>
       <c r="E2" t="n">
-        <v>1030.392831058231</v>
+        <v>1134.453834581475</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>723.4679297918678</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>307.7631795161567</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4360,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656475</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X2" t="n">
-        <v>1416.181083656475</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="Y2" t="n">
-        <v>1416.181083656475</v>
+        <v>1878.50778578647</v>
       </c>
     </row>
     <row r="3">
@@ -4391,43 +4391,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L3" t="n">
-        <v>607.1380332666176</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M3" t="n">
-        <v>970.4000522258377</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.685180822783</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.1598801503962</v>
+        <v>1346.775891851294</v>
       </c>
       <c r="C4" t="n">
-        <v>199.1598801503962</v>
+        <v>1177.839708923387</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>1027.723069511051</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>1027.723069511051</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>1027.723069511051</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1027.723069511051</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>1027.723069511051</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>2339.36084759489</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329318</v>
+        <v>2050.242510098728</v>
       </c>
       <c r="V4" t="n">
-        <v>673.036065727045</v>
+        <v>1795.558021892841</v>
       </c>
       <c r="W4" t="n">
-        <v>419.9524592939263</v>
+        <v>1795.558021892841</v>
       </c>
       <c r="X4" t="n">
-        <v>419.9524592939263</v>
+        <v>1567.568470994824</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.1598801503962</v>
+        <v>1346.775891851294</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.4584982637873</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C5" t="n">
-        <v>494.4959813233756</v>
+        <v>690.4032258886166</v>
       </c>
       <c r="D5" t="n">
-        <v>136.2302827166252</v>
+        <v>332.1375272818661</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674217</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.663428564801</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.197670303721</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y5" t="n">
-        <v>1250.058338327909</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735143</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049862</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,16 +4679,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.1463448421176</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C7" t="n">
-        <v>367.1463448421176</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D7" t="n">
-        <v>367.1463448421176</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4734,7 +4734,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738197</v>
+        <v>1394.715222610545</v>
       </c>
       <c r="V7" t="n">
-        <v>896.0145465323097</v>
+        <v>1140.030734404658</v>
       </c>
       <c r="W7" t="n">
-        <v>606.5973764953492</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X7" t="n">
-        <v>606.5973764953492</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.804797351819</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>957.5907980264819</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>546.6048932368744</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4807,13 +4807,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410102</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796417</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796417</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>629.1078027362229</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>460.171619808316</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>286.8195251357049</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>286.8195251357049</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>140.6023383535627</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1843.443903288487</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1843.443903288487</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1621.677287858014</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1332.574420983657</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1077.88993277777</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1077.88993277777</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>849.900381879753</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>629.1078027362229</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,61 +5017,61 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852251</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
@@ -5080,13 +5080,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.8166630479718</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.8166630479718</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191922</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349506</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061502</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>633.441327983677</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>464.5051450557702</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557702</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557702</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578599</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138421</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>815.0897928139166</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5278,19 +5278,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5357,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356188</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232832</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408902</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429799</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.61519755786</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1990.897413132285</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1701.822186476483</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1447.137698270597</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1157.720528233636</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>929.7309773356188</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.7309773356188</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>802.9288273958734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>652.8121879835377</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>504.8990944011446</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>358.0091469032342</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>190.8130476181141</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5749,28 +5749,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5831,22 +5831,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
         <v>631.7012443408906</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.435061037252</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2159.833596060193</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1870.758369404391</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.073881198505</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W25" t="n">
-        <v>1326.656711161544</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1098.667160263527</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.667160263527</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3046.798896214207</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C28" t="n">
-        <v>3046.798896214207</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D28" t="n">
-        <v>2896.682256801871</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>2748.769163219478</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>2601.879215721568</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3966.646661122954</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.229491085994</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X28" t="n">
-        <v>3449.239940187977</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>3228.447361044447</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,64 +6451,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>2644.045655650153</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>3241.424143276705</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>3869.022106831312</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>615.644930552589</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4115.110757018135</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3825.693586981174</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,58 +6931,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.58852738579</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.58852738579</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.914133601549</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>2817.800993781636</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3445.398957336243</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>3997.30868757553</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7074,34 +7074,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192584</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7241,40 +7241,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273893</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273893</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239595</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.834428639718</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820876</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2149.810879820876</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>702.4944101284094</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>533.5582272005025</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>383.4415877881668</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>235.5284942057737</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057737</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797179</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7374,10 +7374,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>884.1428749586491</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7426,13 +7426,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7490,22 +7490,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452619</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718135</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7572,10 +7572,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2245.425363523663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1956.350136867861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1701.665648661974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1412.248478625014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1184.258927726996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>963.4663485834661</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3046.798896214207</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>2877.8627132863</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>2727.746073873964</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2708.375213874103</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3966.646661122954</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3677.229491085994</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3449.239940187977</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>3228.447361044447</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L3" t="n">
-        <v>14.25823202432775</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566488</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>118.3918499711684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>13.30196929555771</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>125.5341284403486</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>173.4237883572462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>180.548790394188</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>40.64330621514819</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>44.26829212178225</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>86.99395161137544</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>145.801494602747</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>36.41624546988356</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>186.7544012944547</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>198.9093934729018</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>127.2568112467065</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>694613.8252466779</v>
+        <v>694613.8252466777</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>694613.8252466779</v>
+        <v>694613.8252466777</v>
       </c>
     </row>
     <row r="13">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778545</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="F2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="G2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="H2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="F2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="G2" t="n">
-        <v>726431.9397210054</v>
-      </c>
-      <c r="H2" t="n">
-        <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210053</v>
@@ -26346,16 +26346,16 @@
         <v>726431.9397210054</v>
       </c>
       <c r="M2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="N2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="O2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="N2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="O2" t="n">
-        <v>726431.9397210056</v>
-      </c>
       <c r="P2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>6.200466486916411e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551156</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.735885118454462e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,16 +26426,16 @@
         <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756701</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756628</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
@@ -26444,22 +26444,22 @@
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756548</v>
+        <v>9337.200356756646</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756639</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756695</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756559</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984473</v>
@@ -26505,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-605478.2368300125</v>
+        <v>-605478.2368300122</v>
       </c>
       <c r="C6" t="n">
-        <v>509273.5467459073</v>
+        <v>509273.5467459072</v>
       </c>
       <c r="D6" t="n">
         <v>349852.2767480165</v>
       </c>
       <c r="E6" t="n">
-        <v>290559.747732987</v>
+        <v>290212.3684786298</v>
       </c>
       <c r="F6" t="n">
-        <v>615972.209540341</v>
+        <v>615624.8302859846</v>
       </c>
       <c r="G6" t="n">
-        <v>615972.2095403419</v>
+        <v>615624.8302859849</v>
       </c>
       <c r="H6" t="n">
-        <v>615972.2095403415</v>
+        <v>615624.8302859848</v>
       </c>
       <c r="I6" t="n">
-        <v>615972.2095403416</v>
+        <v>615624.8302859847</v>
       </c>
       <c r="J6" t="n">
-        <v>448367.0317303592</v>
+        <v>448019.6524760024</v>
       </c>
       <c r="K6" t="n">
-        <v>615972.2095403415</v>
+        <v>615624.8302859844</v>
       </c>
       <c r="L6" t="n">
-        <v>567678.2395321508</v>
+        <v>567330.8602777941</v>
       </c>
       <c r="M6" t="n">
-        <v>530917.1816048301</v>
+        <v>530569.8023504728</v>
       </c>
       <c r="N6" t="n">
-        <v>615972.209540342</v>
+        <v>615624.8302859847</v>
       </c>
       <c r="O6" t="n">
-        <v>615972.2095403417</v>
+        <v>615624.8302859848</v>
       </c>
       <c r="P6" t="n">
-        <v>615972.2095403419</v>
+        <v>615624.8302859847</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26715,13 +26715,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26740,13 +26740,13 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.771103979917255e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27041,16 +27041,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973546</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>215.7976297042162</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>47.06732354373335</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,7 +27557,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>54.71935133268366</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>35.97022796780357</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>122.2722852802029</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7552629891076</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.3601121973329</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27824,13 +27824,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>46.91356563188745</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>271.8145707770558</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>140.9061777609862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23.00310070767262</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>5.920014318042107</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.143975073528475e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>7.714463988252515e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29991,10 +29991,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.218213731875545e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>8.221727186500901e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -31284,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31320,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31369,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31381,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>381.2855185329327</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32086,19 +32086,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>567.5882829286713</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32238,7 +32238,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>316.3837382263852</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32551,25 +32551,25 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>217.8799919951683</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,28 +33022,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33262,19 +33262,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>217.8799919951686</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33286,7 +33286,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>338.1309585028985</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,40 +33733,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>233.9389431948342</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,37 +33973,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>268.6704608606973</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34161,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34210,25 +34210,25 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>248.74493692092</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34780,10 +34780,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L3" t="n">
-        <v>311.938592662178</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34792,13 +34792,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560635</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35032,7 +35032,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391972</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>249.9438064495994</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35734,19 +35734,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>425.454249006653</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>182.409330812055</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>79.32561221529411</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>79.32561221529446</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36934,7 +36934,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>206.7892464195652</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>91.80490927281591</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>134.6960534463671</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410458</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37946,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3352787.798464481</v>
+        <v>3354548.328767266</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>253.951229018672</v>
+        <v>209.8685059222803</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>66.40055121331473</v>
       </c>
       <c r="I4" t="n">
-        <v>50.07724387121691</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>259.6580847920589</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>239.2868020821915</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>239.3135884893132</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>240.5165181780618</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>256.4217010493346</v>
       </c>
       <c r="G8" t="n">
-        <v>139.1071548763977</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>121.7519142066482</v>
       </c>
       <c r="I10" t="n">
-        <v>73.34931970216547</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>135.0949745400652</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>70.04554881124335</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>219.245038753228</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1878.50778578647</v>
+        <v>1844.676600992463</v>
       </c>
       <c r="C2" t="n">
-        <v>1878.50778578647</v>
+        <v>1475.714084052051</v>
       </c>
       <c r="D2" t="n">
-        <v>1520.24208717972</v>
+        <v>1475.714084052051</v>
       </c>
       <c r="E2" t="n">
-        <v>1134.453834581475</v>
+        <v>1089.925831453807</v>
       </c>
       <c r="F2" t="n">
-        <v>723.4679297918678</v>
+        <v>678.9399266641994</v>
       </c>
       <c r="G2" t="n">
-        <v>307.7631795161567</v>
+        <v>263.2351763884883</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4366,16 +4366,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.50778578647</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X2" t="n">
-        <v>1878.50778578647</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.50778578647</v>
+        <v>2231.276441056585</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429752</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>801.944955774447</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330612</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1346.775891851294</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C4" t="n">
-        <v>1177.839708923387</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D4" t="n">
-        <v>1027.723069511051</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E4" t="n">
-        <v>1027.723069511051</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F4" t="n">
-        <v>1027.723069511051</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G4" t="n">
-        <v>1027.723069511051</v>
+        <v>224.1731970904428</v>
       </c>
       <c r="H4" t="n">
-        <v>1027.723069511051</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2339.36084759489</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>2050.242510098728</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1795.558021892841</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1795.558021892841</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>1567.568470994824</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y4" t="n">
-        <v>1346.775891851294</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="5">
@@ -4549,10 +4549,10 @@
         <v>690.4032258886166</v>
       </c>
       <c r="D5" t="n">
-        <v>332.1375272818661</v>
+        <v>690.4032258886166</v>
       </c>
       <c r="E5" t="n">
-        <v>69.85663355251366</v>
+        <v>304.6149732903723</v>
       </c>
       <c r="F5" t="n">
         <v>62.91113280331018</v>
@@ -4567,13 +4567,13 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4649,10 +4649,10 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>220.18296949591</v>
+        <v>473.9512097489098</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800312</v>
+        <v>305.0150268210029</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800312</v>
+        <v>305.0150268210029</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800312</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1394.715222610545</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1140.030734404658</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W7" t="n">
-        <v>850.6135643676972</v>
+        <v>1104.381804620697</v>
       </c>
       <c r="X7" t="n">
-        <v>622.6240134696799</v>
+        <v>876.3922537226797</v>
       </c>
       <c r="Y7" t="n">
-        <v>401.8314343261497</v>
+        <v>655.5996745791496</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565138</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624726</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>1343.379050624726</v>
+        <v>764.3411331473105</v>
       </c>
       <c r="E8" t="n">
-        <v>957.5907980264819</v>
+        <v>378.5528805490663</v>
       </c>
       <c r="F8" t="n">
-        <v>546.6048932368744</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.080739605071</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.94140762926</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4956,7 +4956,7 @@
         <v>286.8195251357049</v>
       </c>
       <c r="H10" t="n">
-        <v>140.6023383535627</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5132,7 +5132,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5360,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5415,19 +5415,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,64 +6451,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6852,10 +6852,10 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6919,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7311,19 +7311,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8060,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>231.2582814363237</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>193.3273467878345</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>147.3599015160449</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>35.40333084624568</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>32.89260457059996</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>694613.8252466777</v>
+        <v>694613.8252466779</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>694613.8252466777</v>
+        <v>694613.8252466779</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>738937.5928778547</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778554</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210049</v>
       </c>
       <c r="H2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="I2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="J2" t="n">
-        <v>726431.9397210056</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="K2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210052</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
-      <c r="M2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>726431.9397210053</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
         <v>9337.20035675659</v>
@@ -26444,19 +26444,19 @@
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756646</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756632</v>
       </c>
       <c r="M4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756655</v>
       </c>
       <c r="P4" t="n">
         <v>9337.20035675659</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984473</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-605478.2368300122</v>
+        <v>-605478.2368300124</v>
       </c>
       <c r="C6" t="n">
-        <v>509273.5467459072</v>
+        <v>509273.5467459075</v>
       </c>
       <c r="D6" t="n">
-        <v>349852.2767480165</v>
+        <v>349852.2767480166</v>
       </c>
       <c r="E6" t="n">
-        <v>290212.3684786298</v>
+        <v>290525.0098075508</v>
       </c>
       <c r="F6" t="n">
-        <v>615624.8302859846</v>
+        <v>615937.4716149059</v>
       </c>
       <c r="G6" t="n">
-        <v>615624.8302859849</v>
+        <v>615937.4716149056</v>
       </c>
       <c r="H6" t="n">
-        <v>615624.8302859848</v>
+        <v>615937.471614906</v>
       </c>
       <c r="I6" t="n">
-        <v>615624.8302859847</v>
+        <v>615937.471614906</v>
       </c>
       <c r="J6" t="n">
-        <v>448019.6524760024</v>
+        <v>448332.2938049234</v>
       </c>
       <c r="K6" t="n">
-        <v>615624.8302859844</v>
+        <v>615937.4716149062</v>
       </c>
       <c r="L6" t="n">
-        <v>567330.8602777941</v>
+        <v>567643.5016067151</v>
       </c>
       <c r="M6" t="n">
-        <v>530569.8023504728</v>
+        <v>530882.4436793941</v>
       </c>
       <c r="N6" t="n">
-        <v>615624.8302859847</v>
+        <v>615937.4716149061</v>
       </c>
       <c r="O6" t="n">
-        <v>615624.8302859848</v>
+        <v>615937.4716149059</v>
       </c>
       <c r="P6" t="n">
-        <v>615624.8302859847</v>
+        <v>615937.4716149061</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>47.06732354373335</v>
+        <v>91.15004664012505</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>80.85095794181412</v>
       </c>
       <c r="I4" t="n">
-        <v>54.71935133268366</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,13 +27590,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>122.2722852802029</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>167.5892436595199</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27782,7 +27782,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,7 +27794,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>46.91356563188745</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>46.0064801585292</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>150.4543446923768</v>
       </c>
       <c r="G8" t="n">
-        <v>271.8145707770558</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27912,7 +27912,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>23.00310070767263</v>
       </c>
       <c r="I10" t="n">
-        <v>23.00310070767262</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32238,7 +32238,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,16 +32323,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32496,7 +32496,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>277.4567226539314</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>303.4297552732313</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32575,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34780,28 +34780,28 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>397.6203974676403</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>622.4553810291977</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>560.258679069875</v>
       </c>
       <c r="N6" t="n">
         <v>391.197099592874</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,16 +35971,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>138.9023428740572</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>160.8335108287869</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36223,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
